--- a/xlsx/社会神经科学_intext.xlsx
+++ b/xlsx/社会神经科学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>社会神经科学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>心理学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_社会神经科学</t>
+    <t>政策_政策_政治学_社会神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%A4%A7%E7%BA%B2</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -371,15 +371,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>生物心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經經濟學</t>
+    <t>神经经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%A6</t>
@@ -407,9 +404,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算神經科學</t>
+    <t>计算神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E6%8E%A5%E7%BB%84%E5%AD%A6</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經化學</t>
+    <t>神经化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%A6</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E6%AF%92%E7%B4%A0</t>
   </si>
   <si>
-    <t>神經毒素</t>
+    <t>神经毒素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E9%80%92%E8%B4%A8</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%A5%9E%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為神經學</t>
+    <t>行为神经学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clinical_neurophysiology</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
+    <t>神经内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%9C%BC%E7%A7%91%E5%AD%A6</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經學</t>
+    <t>神经学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropathology</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神經外科</t>
+    <t>神经外科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurovirology</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間生物學</t>
+    <t>时间生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_neuroscience</t>
@@ -701,9 +695,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>神经心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/%E6%84%9F%E5%AE%98%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
@@ -749,9 +740,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Neuroendocrinology</t>
   </si>
   <si>
@@ -809,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E9%87%8D%E7%97%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經重症學</t>
+    <t>神经重症学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurooncology</t>
@@ -845,9 +833,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Affective_neuroscience</t>
   </si>
   <si>
@@ -941,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8%E8%88%87%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學與現象學</t>
+    <t>神经科学与现象学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurophilosophy</t>
@@ -1019,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%AA%BF%E7%AF%80</t>
   </si>
   <si>
-    <t>神經調節</t>
+    <t>神经调节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Book:Neuroscience</t>
@@ -3107,7 +3092,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3133,10 +3118,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3162,10 +3147,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3191,10 +3176,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3220,10 +3205,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3249,10 +3234,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3278,10 +3263,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>52</v>
@@ -3307,10 +3292,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3336,10 +3321,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3394,10 +3379,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3423,10 +3408,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3452,10 +3437,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3481,10 +3466,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3510,10 +3495,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3539,10 +3524,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3568,10 +3553,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3597,10 +3582,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3626,10 +3611,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3655,10 +3640,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>24</v>
@@ -3684,10 +3669,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3713,10 +3698,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3742,10 +3727,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3771,10 +3756,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3800,10 +3785,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3829,10 +3814,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3858,10 +3843,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3887,10 +3872,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3916,10 +3901,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3945,10 +3930,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3974,10 +3959,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4003,10 +3988,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4032,10 +4017,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4061,10 +4046,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4090,10 +4075,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4119,10 +4104,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4148,10 +4133,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4177,10 +4162,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4206,10 +4191,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4235,10 +4220,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4264,10 +4249,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4293,10 +4278,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4322,10 +4307,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4351,10 +4336,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4380,10 +4365,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4409,10 +4394,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4438,10 +4423,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4467,10 +4452,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4496,10 +4481,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4525,10 +4510,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4554,10 +4539,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4583,10 +4568,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4612,10 +4597,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4641,10 +4626,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4670,10 +4655,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4699,10 +4684,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
@@ -4728,10 +4713,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4757,10 +4742,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4786,10 +4771,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4815,10 +4800,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4844,10 +4829,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4873,10 +4858,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4902,10 +4887,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4931,10 +4916,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4960,10 +4945,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4989,10 +4974,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5018,10 +5003,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5047,10 +5032,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5076,10 +5061,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5105,10 +5090,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F129" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5134,10 +5119,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5163,10 +5148,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5192,10 +5177,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5221,10 +5206,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5250,10 +5235,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5279,10 +5264,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5308,10 +5293,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5337,10 +5322,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5366,10 +5351,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5395,10 +5380,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5424,10 +5409,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5453,10 +5438,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5482,10 +5467,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5511,10 +5496,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5540,10 +5525,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5569,10 +5554,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5598,10 +5583,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5627,10 +5612,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5656,10 +5641,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5685,10 +5670,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5714,10 +5699,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150" t="s">
         <v>125</v>
-      </c>
-      <c r="F150" t="s">
-        <v>126</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5743,10 +5728,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5772,10 +5757,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5801,10 +5786,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5830,10 +5815,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5859,10 +5844,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5888,10 +5873,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5917,10 +5902,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5946,10 +5931,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5975,10 +5960,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6004,10 +5989,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6033,10 +6018,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6062,10 +6047,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6091,10 +6076,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6120,10 +6105,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F164" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6149,10 +6134,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6178,10 +6163,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6207,10 +6192,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6236,10 +6221,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6265,10 +6250,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6294,10 +6279,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6323,10 +6308,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6352,10 +6337,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6381,10 +6366,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6410,10 +6395,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
